--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Javaproject\GoldPriceandStockNews1\NewsReader\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE7B2C6E-D11A-44E5-9CFA-3E029E3EDD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD7B78-52B9-4A33-9E4F-BC95F7FB1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD4CECF9-294C-4F74-8641-C4107CB88CF4}"/>
   </bookViews>
@@ -35,6 +35,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>23-10-2025</t>
+  </si>
+  <si>
+    <t>Based on corporate news and market movements today (October 23, 2025) for Indian stocks, here are 5 key highlights:
+IT Stocks Surge, Led by Infosys:
+IT stocks were among the top performers, driven by optimism surrounding a potential US-India trade deal and a generally positive market sentiment.
+Infosys was the top Sensex gainer, jumping nearly 4% after the company announced details of its largest-ever ₹18,000 crore share buyback program.
+HCL Technologies and TCS also saw strong gains.
+Key Q2 Earnings Announcements:
+Several major companies reported their financial results for the second quarter (Q2 FY26):
+Colgate-Palmolive (India): Reported a drop in profit (around 17%) to ₹327.5 crore, but also declared a dividend.
+Hindustan Unilever (HUL): The stock was in focus as the company announced its Q2 results, which are keenly watched for consumer demand trends.
+Laurus Labs: Announced Q2 results, with profit reportedly surging by a significant margin.
+Defence Sector Boost:
+The Centre approved procurement proposals worth approximately ₹79,000 crore for the armed forces, which is a major positive cue for Indian defence sector stocks like Bharat Electronics (BEL) and others.
+Major Contract Wins:
+Bharat Electronics (BEL) secured a major defence contract deal from Cochin Shipyard valued at around ₹630 crore.
+Kirloskar Ferrous Industries (KFIL) won a significant supply deal from ONGC for tubing and associated goods, valued at approximately ₹360 crore.
+Gulshan Polyols bagged large ethanol supply contracts for Oil Marketing Companies (OMCs) under the Ethanol Blended Petrol Programme, valued at an estimated ₹1,185 crore.
+Tata Motors Demerger:
+The stock was in focus ahead of the renaming of Tata Motors to Tata Motors Passenger Vehicles (TMPV) from October 24, marking the completion of its demerger process to split its commercial and passenger vehicle divisions into separate listed entities.
+The company also reported strong festive season sales.
+Disclaimer: This is based on news reports and is not investment advice.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Share News</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +451,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="186.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Javaproject\GoldPriceandStockNews1\NewsReader\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD7B78-52B9-4A33-9E4F-BC95F7FB1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87F255-5925-415E-A95C-0A55787A27E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD4CECF9-294C-4F74-8641-C4107CB88CF4}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Javaproject\GoldPriceandStockNews1\NewsReader\src\test\resources\Data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -68,11 +68,60 @@
   <si>
     <t>Share News</t>
   </si>
+  <si>
+    <t>24-10-2025</t>
+  </si>
+  <si>
+    <t>Based on the corporate and stock market news for Indian stocks today, October 24, 2025, here are 5 key corporate developments or themes:
+Q2 Earnings Announcements Drive Stock-Specific Action:
+A significant number of companies, including heavyweights like Aditya Birla Sun Life AMC, Coforge, Dr Reddy's Laboratories, ITC Hotels, SBI Cards and Payment Services, and SBI Life Insurance, are scheduled to announce their Q2 FY26 results today, which will be a major market driver.
+PTC India Financial Services shares rallied significantly (over 15%) following a strong Q2 FY26 report, which highlighted improved disbursements and asset quality.
+South India Paper Mills stock jumped 20% after reporting a return to profitability and a rise in revenue for Q2 FY26.
+Defence Stocks in Focus on New Projects:
+Shares in the defence sector are under the spotlight as the Defence Acquisition Council (DAC) approved proposals worth approximately Rs 79,000 crore.
+Key projects include the Nag Missile System (Tracked) Mk-II and Ground-Based Mobile ELINT System, signaling potential order book growth for defence companies.
+Cipla's Distribution Agreement:
+Cipla entered an agreement with Eli Lilly and Company (India) to distribute and promote the drug tirzepatide (under the brand name Yurpeak) in India, expanding treatment options for diabetes patients in the country.
+Caplin Point's USFDA Approval:
+Caplin Point Laboratories' subsidiary, Caplin Steriles, received final approval from the US Food and Drug Administration (USFDA) for its generic nicardipine hydrochloride injection, used for managing high blood pressure during surgery.
+Strategic Acquisitions and Business Outlook:
+Premier Energies announced plans to acquire a 51% stake in KSolare Energy Pvt Ltd for about Rs 86.7 crore.
+Laurus Labs provided a positive business outlook for FY2026, projecting revenue growth driven primarily by its Contract Development and Manufacturing Organisation (CDMO) business.
+This list is compiled from news reports published on the morning of October 24, 2025, and focuses on company-specific announcements and themes directly impacting Indian stocks.</t>
+  </si>
+  <si>
+    <t>It is Friday, October 24, 2025.
+Here are some of the top corporate news and updates impacting Indian stocks today:
+🌟 Top 5 Corporate News &amp; Updates (October 24, 2025)
+Q2 Earnings Reports in Focus:
+A busy day for earnings with key results scheduled from major companies including SBI Life Insurance, Dr Reddy's Laboratories, SBI Cards and Payment Services, Coforge, and ITC Hotels.
+Quarterly results often drive significant stock movement.
+Kotak Mahindra Bank Q2 Preview suggests a focus on the bank's Pat (Profit After Tax) being largely flat due to NIM (Net Interest Margin) compression and margin pressure.
+L&amp;T Secures Major Orders:
+Larsen &amp; Toubro's (L&amp;T) Minerals &amp; Metals business vertical has secured significant orders from Hindalco for an Aluminium Smelter and Gas Treatment Centre in Odisha, and from TATA Steel for a Coke Oven Battery in Jamshedpur.
+This strengthens L&amp;T's position in the industrial infrastructure space.
+Cipla's Distribution Agreement:
+Cipla has entered into an agreement with Eli Lilly to distribute the drug Tirzepatide (used for Type-2 diabetes and obesity) in India under the brand name Yurpeak.
+Tata Motors Demerger:
+Tata Motors has officially completed its split into two companies: Tata Motors Passenger Vehicles Ltd (TMPV) and a new commercial vehicle entity, TMLCV.
+Shareholders will receive one TMLCV share for every Tata Motors share held.
+The move is aimed at improving operational efficiency and unlocking value.
+Merger &amp; Acquisition Activity in Focus:
+The Indian financial sector continues to see M&amp;A activity.
+Syrma SGS has signed an agreement to acquire KSolare Energy from Premier Energies for ₹170 crore to boost its renewable energy portfolio.
+Recent large cross-border deals in the financial sector have been highlighted, including Emirates NBD's planned acquisition of a stake in RBL Bank and Blackstone's investment in Federal Bank.
+📈 Market Context
+Indian equity benchmarks, Nifty 50 and BSE Sensex, are trading on a muted/flat note in early trade today, following mixed global cues and profit booking after a recent rally that saw the indices hit 52-week highs.
+Foreign Institutional Investors (FIIs) were net sellers on Thursday, while Domestic Institutional Investors (DIIs) were net purchasers.
+Hindustan Unilever (HUL) and HDFC Bank were noted as early laggards in the Sensex basket.
+Would you like to check the latest stock price movements for any of these specific companies?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -459,8 +508,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="186.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.109375"/>
+    <col min="2" max="2" customWidth="true" style="3" width="186.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -472,11 +521,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -115,6 +115,66 @@
 Foreign Institutional Investors (FIIs) were net sellers on Thursday, while Domestic Institutional Investors (DIIs) were net purchasers.
 Hindustan Unilever (HUL) and HDFC Bank were noted as early laggards in the Sensex basket.
 Would you like to check the latest stock price movements for any of these specific companies?</t>
+  </si>
+  <si>
+    <t>Based on the latest reports for Indian stocks (specifically covering announcements and movements from October 24, 2025), here are the top 5 pieces of corporate-related news influencing the market:
+FMCG Stocks Decline on Earnings/GST Impact:
+Hindustan Unilever (HUL) share price dropped after its Q2 FY26 results.
+The stock was hit by cautious commentary and the fallout of a GST rate change, which shifted nearly 40% of its portfolio to a higher tax slab, necessitating price and grammage adjustments.
+Colgate-Palmolive (India) shares also fell sharply (around 3.8%) after the company posted a decline in Q2 profit. The revenue and profit were impacted by a GST rate reduction on the entire oral care portfolio (from 18% to 5%).
+Defence Stocks Maintain Rally:
+Defence sector stocks continued their upward momentum, fueled by a positive outlook and sector-specific announcements.
+The Defence Acquisition Council (DAC) approved proposals worth around ₹79,000 crore for domestic procurement, benefiting companies like Bharat Dynamics (up over 2%), Bharat Electronics, Hindustan Aeronautics, Cochin Shipyard, and Mazagon Dock.
+Metals Sector Surge on Global Supply Concerns:
+Major metal stocks like NALCO, Hindalco, and Vedanta saw significant gains (3.7% to 5.3%), with Hindalco hitting an all-time high.
+This surge was primarily driven by international supply concerns, specifically reports of a major output cut at Century Aluminium's Iceland smelter.
+Thyrocare Promoter Stake Sale:
+Thyrocare Technologies share price rose after a significant block deal.
+Docon, the company's promoter group entity, sold a large stake (53.33 lakh shares) worth approximately ₹667 crore.
+The stock held firm following the news, with the company confirming Docon remains a promoter.
+Vedanta to Invest ₹1 Lakh Crore in Odisha:
+Vedanta Group announced a plan to invest an additional ₹1 lakh crore in Odisha. This major commitment includes setting up a ferro-alloys plant and two new aluminium parks, which is expected to create over one lakh direct and indirect jobs.</t>
+  </si>
+  <si>
+    <t>A snapshot of the top corporate news impacting Indian stocks today, Friday, October 24, 2025, focuses heavily on quarterly earnings reactions, sector-specific momentum, and corporate actions.
+Here are 5 key corporate news items:
+1. FMCG Sector Under Pressure Post Q2 Results
+Hindustan Unilever (HUL): Share price dropped over 3% after announcing its Q2 FY26 results.
+The company reported challenges from a GST rate change, which shifted nearly 40% of its portfolio to a higher tax slab, necessitating price and grammage changes.
+Weak volumes were noted in the beauty, personal care, and ice-cream segments.
+Colgate-Palmolive (India): Its share price fell by 3.8% following a decline in its Q2 profit, as the market was disappointed by the lack of strong signs of volume recovery.
+2. Defence Stocks Continue Rally
+The entire Defence sector extended its recent rally.
+Bharat Dynamics was up over 2%, while Bharat Electronics (BEL) and Hindustan Aeronautics (HAL) each gained close to 1%.
+The positive sentiment follows the Defence Acquisition Council (DAC) approving proposals worth around ₹79,000 crore for key projects, including the Nag Missile System and High Mobility Vehicles.
+3. IT Company Coforge Reports Strong Q2 Earnings
+Coforge Limited announced robust Q2 financial results, with revenue increasing by 31.7% year-on-year and net profit surging by 86.0%.
+The company's order intake for the quarter was strong at $514 million, and the board recommended an interim dividend of ₹4.00 per share.
+4. Metal Stocks Surge on Global Supply Concerns
+Metal stocks, including NALCO, Hindalco, and Vedanta, were trading strong.
+Hindalco climbed 4.3% to an all-time high.
+The surge followed a rise in global aluminum prices (trading at a high on the London Metal Exchange) due to reports of a major output cut at an Iceland smelter, raising supply concerns.
+5. Promoter Stake Sale in Thyrocare Technologies
+Thyrocare Technologies saw its share price rise after a major promoter transaction.
+Docon, a promoter group entity, sold 53.33 lakh shares (approximately ₹667 crore) in a block deal.
+Despite the stake cut, the company clarified that Docon remains a promoter, and the stock held firm, reflecting sustained market interest.
+Disclaimer: The Indian stock markets closed in the red today after a six-day winning streak, largely due to profit-booking in FMCG and banking shares.
+The movements of individual stocks are a mix of earnings impact, global cues, and sector-specific news.
+These points reflect the most significant corporate announcements and market movers of the day.
+Would you like a deeper dive into the Q2 results of any specific company, like HUL or Coforge?</t>
+  </si>
+  <si>
+    <t>Based on the latest reports and corporate actions today, October 24, 2025, here are the top 5 corporate news items for Indian stocks:
+Hindustan Unilever (HUL) Stock Decline Post-Q2 Results: HUL's share price dropped over 3% after announcing its Q2 FY26 results.
+The results showed a hit, partly due to a GST rate change that affected nearly 40% of its portfolio.
+While home care volumes saw modest growth, the beauty, personal care, and ice-cream segments were reported as weak.
+Cipla's New Diabetes &amp; Obesity Drug Distribution Deal: Cipla has entered into an agreement with Eli Lilly and Company (India) to distribute and promote the drug Tirzepatide (used for Type-2 diabetes and obesity) in India under the brand name Yurpeak.
+Defence Stocks Maintain Rally: Defence sector stocks continued their upward momentum following a Defence Acquisition Council (DAC) approval of proposals worth around Rs 79,000 crore.
+Key gainers included Bharat Dynamics (up over 2%), Bharat Electronics, and Hindustan Aeronautics.
+ITC Hotels Q2 Results: ITC Hotels announced strong financial results, with its Q2 Profit After Tax (PAT) soaring 74% year-on-year (YoY) to Rs 133 crore, and revenue rising by 8%.
+Syrma SGS &amp; Premier Energies Acquisition: Syrma SGS Technologies signed an agreement with Premier Energies to acquire KSolare Energy for ₹170 crore.
+Separately, Premier Energies announced plans to acquire a 51% stake in KSolare Energy, with Syrma SGS picking up the remaining 49%. This move is aimed at strengthening their renewable energy portfolios.
+Disclaimer: This is not investment advice. Stock prices and market sentiment can change rapidly.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -544,6 +604,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -175,6 +175,208 @@
 Syrma SGS &amp; Premier Energies Acquisition: Syrma SGS Technologies signed an agreement with Premier Energies to acquire KSolare Energy for ₹170 crore.
 Separately, Premier Energies announced plans to acquire a 51% stake in KSolare Energy, with Syrma SGS picking up the remaining 49%. This move is aimed at strengthening their renewable energy portfolios.
 Disclaimer: This is not investment advice. Stock prices and market sentiment can change rapidly.</t>
+  </si>
+  <si>
+    <t>25-10-2025</t>
+  </si>
+  <si>
+    <t>Since today is a Saturday (October 25, 2025), the major Indian stock exchanges (BSE and NSE) are typically closed, so there are no official "top 5 corporate news" releases from the exchanges today.
+However, based on the latest available information from Friday and weekend news reports, here are some of the most significant corporate news and market-related updates for Indian stocks:
+📰 Top Corporate &amp; Market News (Weekend Updates)
+Kotak Mahindra Bank Q2 Results: The bank reported that its Q2 consolidated net profit was down 11% year-on-year, primarily due to higher provisions.
+Reliance-Meta AI Joint Venture: Reliance and Meta announced an AI joint venture in India, with an initial investment of ₹855 crore.
+Reliance Intelligence will reportedly hold 70% and Meta 30%.
+LIC Statement on Adani Investments: Life Insurance Corporation (LIC) stated that its investments in Adani Group firms were made independently and after conducting due diligence.
+Hindustan Unilever (HUL) Stock Movement: HUL's share price saw a drop following the announcement of its Q2 FY26 results, with factors like a GST rate change impacting its portfolio and weaker volumes in beauty, personal care, and ice-cream lines cited as reasons.
+Defence Stocks Rally Continues: Defence sector stocks like Bharat Dynamics and Hindustan Aeronautics continued to see strong momentum, supported by positive industry reports predicting a "tremendous" scope in defence proposals.
+The Indian stock market's regular trading days are Monday to Friday.
+Would you like me to look up the latest closing prices for any of these specific stocks or search for the corporate news from the last trading day (Friday, October 24, 2025)?</t>
+  </si>
+  <si>
+    <t>Based on the corporate news and regulatory filings available for Indian stocks on Saturday, October 25, 2025, here are five significant corporate-related developments:
+Kotak Mahindra Bank Q2 Results:
+The bank reported a decline in its Q2 consolidated net profit (down 11% year-on-year) primarily due to higher provisions.
+The standalone net profit also saw a moderate drop.
+Reliance &amp; Meta AI Joint Venture:
+Reliance Industries and Facebook parent Meta announced a joint venture in India focused on Artificial Intelligence (AI).
+They will jointly invest ₹855 crore in the new entity, with Meta reportedly holding a 30% stake.
+CRISIL Interim Dividend &amp; Results:
+CRISIL's Board of Directors approved a ₹16 per share third interim dividend for the financial year.
+The company also approved its unaudited standalone and consolidated financial results for the quarter and nine-month period ended September 30, 2025.
+The record date for the dividend is fixed as October 27, 2025.
+LIC Clarifies Adani Group Investment:
+Life Insurance Corporation of India (LIC) issued a statement, clarifying that its investments in Adani Group firms were made independently after due diligence, in response to a report regarding its exposure to the conglomerate.
+Sejal Glass Q2 Financial Results:
+Sejal Glass Limited announced its unaudited Q2 FY26 financial results, reporting a strong performance with a 70% growth in total revenues and a substantial increase in profit year-on-year, driven by robust international business traction.
+Note: Since the markets (BSE and NSE) were closed for trading on Saturday, the news generally revolves around quarterly results, regulatory announcements, and major business developments that were released after Friday's market closure or during the weekend.</t>
+  </si>
+  <si>
+    <t>26-10-2025</t>
+  </si>
+  <si>
+    <t>The date today is Sunday, October 26, 2025. Since Indian stock exchanges (BSE and NSE) are typically closed on weekends, the news available is from the end of the last trading week (primarily Friday, October 24, 2025) and analyst/market commentary for the upcoming week.
+Here are some of the top corporate and market-related news items for Indian stocks:
+Market Capitalization Surge: The combined market capitalization of seven of India's top ten most valued firms increased by over ₹1.55 lakh crore in the last holiday-shortened trading week.
+Reliance Industries and TCS were the main contributors to this surge.
+Major Joint Venture Announcement (RIL &amp; Meta): Reliance Industries (RIL), through its wholly-owned subsidiary, formed a joint venture with Meta's (formerly Facebook) subsidiary, Facebook Overseas, Inc.
+The new entity, Reliance Enterprise Intelligence Limited (REIL), will focus on developing and distributing enterprise AI services.
+Reliance Intelligence will hold a 70% controlling stake, with an initial joint investment commitment of approximately ₹855 crore.
+Key Corporate Actions and Dividends: Companies like Infosys, REC, Coforge, Laurus Labs, and L&amp;T Technology Services (LTTS) are among the stocks set to trade ex-dividend or for other corporate actions in the coming week.
+LTTS, for example, had announced an interim dividend of ₹18 per share.
+Major Contract Wins &amp; Expansion:
+NCC secured a significant contract worth ₹6,829 crore from Central Coalfields Ltd.
+for coal extraction work.
+NTPC subsidiary achieved a key milestone by completing the trial operation of Unit-1 (800 MW) of the Patratu Super Thermal Power Project.
+Quarterly Earnings/Financial Results Impact:
+Hindustan Unilever (HUL) shares dropped after its Q2 results, with the company citing a GST rate change impacting its portfolio.
+ITC Hotels reported a strong 74.30% YoY surge in consolidated net profit for the September quarter.
+The market is anticipating Q2 results from major companies like Indian Oil Corp (IOC), Mazagon Dock Shipbuilders, Coal India, SAIL, Larsen &amp; Toubro, and NTPC in the upcoming week.
+This information is based on public news reports and corporate filings from the days leading up to and including the weekend. For specific trading day news, it's best to check a live news source when the market is open.</t>
+  </si>
+  <si>
+    <t>31-10-2025</t>
+  </si>
+  <si>
+    <t>The current date is Friday, October 31, 2025.
+Here are some of the top corporate news and developments for Indian stocks today, largely driven by Q2 earnings announcements:
+🌟 Top 5 Corporate News Today (Indian Stocks)
+Bandhan Bank:
+News: Share price plunged about 6% after the bank reported an 88% year-on-year drop in consolidated net profit for Q2 FY26 to ₹112 crore, compared to ₹937 crore last year.
+Impact: Negative, reflecting concerns over the substantial profit decline.
+Navin Fluorine:
+News: Share price surged about 13% following a stellar Q2 FY26 performance. The specialty chemicals firm reported a 46.3% YoY jump in revenue and a massive 129.3% increase in operating EBITDA, with margins expanding sharply.
+Impact: Strongly Positive, driven by exceptional financial results.
+Dabur India:
+News: Share price fell nearly 3% as Q2 earnings disappointed the street. The FMCG major reported a modest 6.5% YoY rise in consolidated net profit to ₹453 crore. A brokerage firm like Motilal Oswal downgraded the stock.
+Impact: Negative, due to slower-than-expected profit growth and analyst downgrades. The company also announced a new investment platform, 'Dabur Ventures', with a capital allocation of up to ₹500 crore to invest in digital-first businesses.
+United Spirits (Diageo-backed):
+News: Share price climbed about 6.9% after posting a strong Q2 FY26 performance, with a 36.1% YoY rise in consolidated net profit and growth driven by its premium portfolio.
+Impact: Positive, reflecting strong underlying business performance in the premium segment.
+TD Power Systems:
+News: Share price jumped around 8% to a record high after the company raised its full-year revenue guidance to ₹1,800 crore from ₹1,500 crore earlier, citing strong demand in gas engine and turbine segments.
+Impact: Strongly Positive, based on a significant upgrade in future business outlook and order book strength.
+📰 Other Key Corporate Developments:
+Union Bank of India: Stock rose about 5.9% after reporting a sharp drop in provisions for bad loans in Q2 FY26, which boosted profitability.
+Swiggy: Reported a consolidated net loss of ₹1,092 crore in the September quarter, higher than the previous year, despite a 54% jump in revenue. The stock was mentioned in news for planning to raise up to ₹10,000 crore via a Qualified Institutional Placement (QIP).
+Welspun Corp: Gained over 5% after reporting record quarterly EBITDA and a strong order book of ₹23,500 crore.
+Would you like a more detailed breakdown of the quarterly results for any of these specific companies?</t>
+  </si>
+  <si>
+    <t>01-11-2025</t>
+  </si>
+  <si>
+    <t>You've asked for the top 5 corporate news for Indian stocks today, Saturday, November 1, 2025. Since the Indian stock markets (BSE and NSE) are typically closed on Saturdays (except for special trading sessions), the latest corporate news that would influence stock movement is from the previous trading day, Friday, October 31, 2025, and any significant announcements or brokerage calls released today.
+Here are 5 key corporate-related updates:
+1. 🚨 SEBI's Bank Nifty Restructuring
+News: The Securities and Exchange Board of India (SEBI) announced a phased restructuring of bank stock indexes linked to derivatives contracts by March 2026.
+Impact: This move weighed heavily on Private Banking stocks like HDFC Bank and ICICI Bank, as investors booked profits amid concerns over potential outflows and index changes. This was a primary reason for the overall market decline on Friday.
+2. 📈 Strong Q2 Earnings for BEL
+News: Bharat Electronics (BEL) posted solid Q2 results, reporting an 18% YoY rise in profit and a 25.75% jump in revenue.
+Impact: BEL emerged as a top performer on the Nifty 50 on Friday, with its stock rising significantly following the announcement.
+3. 💼 Brokerage Upgrades for Tata Steel
+News: Leading domestic brokerage Motilal Oswal upgraded Tata Steel to 'Buy' from 'Neutral' with a higher target price.
+Reason: The upgrade is based on expected improvement in realizations after the implementation of safeguard duty, operating efficiencies, and a strong domestic demand outlook.
+4. 🚀 L&amp;T and SBI Life Get Positive Brokerage Calls
+News: Brokerage houses maintained or reiterated 'Buy' ratings and strong target prices for several stocks based on recent results and outlook.
+Larsen &amp; Toubro (L&amp;T): Followed a strong earnings week with brokerages reiterating 'Buy' and expecting sales growth to exceed 15% through FY27-FY28.
+SBI Life Insurance: Motilal Oswal issued a 'Buy' rating, citing the expansion of the Value of New Business (VNB) margin as a key catalyst.
+5. 📉 Bandhan Bank Under Pressure
+News: The stock of Bandhan Bank plunged significantly following what were described as soft Q2 numbers.
+Impact: Despite the weak results, international brokerage Jefferies retained a 'Buy' rating, projecting a recovery in return on equity by FY27.
+Would you like a list of other stocks that had significant price movements (gainers or losers) based on corporate news from Friday's closing session?</t>
+  </si>
+  <si>
+    <t>02-11-2025</t>
+  </si>
+  <si>
+    <t>Hello! Since today is Sunday, November 2, 2025, the Indian stock market (BSE/NSE) is closed for regular trading.
+The most recent corporate news and developments relate to the end of the last trading week (up to Friday, October 31, 2025) and news releases over the weekend.
+Here are the Top 5 Corporate/Market-Related News updates relevant to Indian stocks:
+1. 💰 FPIs End Outflow Streak in October
+Foreign Portfolio Investors (FPIs) were net buyers in Indian equities in October, pumping in ₹14,610 crore. This marks the end of a three-month outflow streak and is a significant sentiment booster for the market.
+2. 📊 Q2 Earnings Season Continues - Key Results Ahead
+The Q2 results season remains a major driver. While the markets closed last week with mixed corporate earnings, the next week is packed with results from heavyweight companies that will guide market direction.
+Stocks to watch for results: Bharti Airtel, Titan, Adani Enterprises, Adani Ports, InterGlobe Aviation (IndiGo), Mahindra &amp; Mahindra, SBI, and others.
+3. 📉 SEBI's Proposed MF Expense Rules Impact AMCs
+Shares of Asset Management Companies (AMCs) like HDFC AMC, Nippon Life India Asset Management, and Prudent Corporate Advisory Services saw selling pressure earlier in the week after SEBI released a consultation paper.
+The proposal aims to eliminate the additional 5 basis points (bps) charge allowed across mutual fund schemes, which could potentially impact the profitability of AMCs in the near term.
+4. 📈 Urban Company Reports Strong Revenue Growth Despite Wider Loss
+In its Q2 FY26 results released over the weekend, recently listed Urban Company reported a 37% year-on-year growth in revenue from operations. However, its consolidated net loss widened to ₹59 crore, primarily due to upfront investments in its new vertical, 'Insta Help'.
+5. 🚀 IPO Rush and Market Debuts in Focus
+The coming week is expected to be busy with IPOs, which will increase trading buzz and liquidity:
+5 New IPOs are set to open for subscription (2 mainboard, 3 SME).
+5 companies are scheduled to make their stock market debut.
+Note: The Lenskart IPO was fully subscribed on Day 1 of its opening on October 31.
+Would you like me to look up the latest news specifically for any of the major companies due to announce their Q2 results next week?</t>
+  </si>
+  <si>
+    <t>05-11-2025</t>
+  </si>
+  <si>
+    <t>Hello! As of Wednesday, November 5, 2025, the Indian stock market (BSE and NSE) is closed for the holiday of Guru Nanak Jayanti (Prakash Gurpurab).
+Since there is no regular trading today, there are no live "top 5 corporate news" from the market.
+However, based on the corporate announcements and key results from the previous trading day (Tuesday, November 4, 2025) and news releases, here are some of the major corporate updates that would have been in focus:
+📰 Top Corporate Highlights (Based on November 4, 2025 Trading/News)
+Titan Company: Reported a strong jump in Net Profit (43% YoY) and Revenue (25% YoY) for the September quarter of FY26, driven by higher gold prices and festive demand, which is likely to keep the stock in focus.
+Cipla: Announced a strategic acquisition of 100% of Inzpera Healthsciences Ltd for approximately $110.65 crore, a move aimed at strengthening its consumer healthcare portfolio.
+Bharti Hexacom: Reported a significant 66.4% YoY jump in net profit for the quarter, led by higher data usage and smartphone additions, with revenue also growing by 10.5% YoY.
+Zydus Lifesciences: Announced that its board would meet on November 6 to consider a proposal to raise up to $5,000 crore through methods like a Qualified Institutional Placement (QIP) or rights issue.
+Bank of Baroda / PSU Banks: Continued to show strength following strong quarterly earnings. Bank of Baroda advanced after posting better-than-expected September-quarter results, with brokerages maintaining a positive outlook on the PSU banking sector due to healthy earnings and improving asset quality.
+The market will resume normal trading tomorrow, Thursday, November 6, 2025.
+Would you like me to look up the key corporate announcements expected for tomorrow, November 6, 2025?</t>
+  </si>
+  <si>
+    <t>06-11-2025</t>
+  </si>
+  <si>
+    <t>A few major corporate and stock-related news items impacting Indian stocks on Thursday, November 6, 2025 are:
+🚀 Top 5 Corporate News &amp; Stock Drivers
+Q2 Earnings Announcements &amp; Reactions:
+Paytm (One97 Communications): Reported a consolidated net profit of ₹21 crore for Q2 FY26, a sharp decline from the previous year, though its revenue grew by 24.2%.
+The stock rose over 4% as analysts noted healthy core performance and a significant decline in device costs leading to improved profitability.
+IndiGo (InterGlobe Aviation): Reported a widened net loss of ₹2,582.1 crore for Q2 FY26, primarily due to currency fluctuations.
+Despite the loss, the stock remained strong.
+Mahindra &amp; Mahindra (M&amp;M): Announced a profit of ₹261 crore from the sale of its entire 3.53% stake in RBL Bank for ₹678 crore.
+The stock was among the major gainers on the day.
+Sun Pharma: Reported a 2.6% YoY growth in net profit for Q2 FY26 at ₹3,117.95 crore, with revenue rising 8.6%.
+The stock gained around 1.5%.
+Grasim Industries: Reported a strong 76% YoY growth in consolidated net profit for Q2 FY26 at ₹553.48 crore, with revenue rising 16.6%.
+Goldman Sachs' 'Conviction List' for APAC:
+Reliance Industries (RIL), Titan Company, Havells India, MakeMyTrip, and PTC Industries were included in Goldman Sachs' Asia Pacific conviction list, with expected upsides ranging from 14% to 54%.
+RIL and Titan were among the top movers in the market.
+MSCI November Index Rejig Impact:
+The inclusion of stocks like Paytm, Fortis Healthcare, and others in the MSCI Global Standard Index in the November rejig is expected to attract additional foreign inflows, providing a boost to these counters.
+Corporate Actions (Dividends &amp; Splits):
+Stocks trading ex-dividend today include Hindustan Petroleum Corporation Limited (HPCL) and Nippon Life India Asset Management Limited (NAM-INDIA), which affects their current market prices.
+A small-cap real estate firm announced a 1:5 stock split to boost liquidity and retail participation.
+Strategic &amp; Investment Updates:
+SBI announced plans to launch an IPO for SBI Funds Management, intending to divest a 6.3% stake.
+United Spirits initiated a strategic review of its investment in Royal Challengers Sports, which owns the RCB cricket franchise.
+Tata Power is planning a significant investment of ₹11,000 crore to set up a pumped hydro storage project in Pune, Maharashtra.
+Disclaimer: Stock market news is dynamic and can change quickly. This information is a summary based on available news reports from today and is for informational purposes only. It is not financial advice.
+Is there any specific stock or sector you would like to know more about?</t>
+  </si>
+  <si>
+    <t>10-11-2025</t>
+  </si>
+  <si>
+    <t>It is currently Monday, November 10, 2025.
+Based on the latest available market information and corporate announcements for Indian stocks today and over the weekend, here are the top 5 corporate news headlines:
+📰 Top 5 Corporate News for Indian Stocks (November 10, 2025)
+Lenskart's Soft Stock Market Debut:
+Shares of the eyewear retailer Lenskart debuted on the exchanges today (November 10) with a soft listing, opening at a slight discount to its IPO price amid valuation concerns despite a healthy subscription.
+The stock traded lower on listing, though it saw an intraday surge. This listing is a key market event today.
+Trent Q2 Results and Stock Reaction:
+Trent Ltd (Tata Group retail company) reported an 11% year-on-year (YoY) growth in consolidated profit for the September quarter (Q2) at ₹377 crore, with revenue up 16% YoY to ₹4,818 crore.
+Despite the healthy numbers, the company's share price declined by over 6% intraday, as the market sentiment was likely expecting a stronger performance or reacted to the deceleration in revenue growth seen in the quarter.
+Sugar Stocks Surge on Export Quota Announcement:
+Shares of major Sugar manufacturers, including Balrampur Chini Mills, Triveni Engineering, and Dalmia Bharat Sugar, are surging (up 3-6%) following the government's announcement to permit the export of 1.5 million tonnes (MT) of sugar for the ongoing 2025-26 season.
+Bajaj Auto's Strong Q2 Earnings:
+Bajaj Auto reported a 23.7% rise in its second-quarter profit to ₹2,480 crore, boosted primarily by higher exports of its motorcycles, which offset sluggish domestic demand. The results were announced on Friday.
+Adani Enterprises in Focus for JAL Acquisition Bid:
+Adani Enterprises Ltd (AEL) is likely to emerge as the highest bidder to acquire Jaiprakash Associates Ltd (JAL) through the insolvency process, as its offer terms are reportedly more favorable than Vedanta's.
+This potential acquisition keeps AEL in the news.
+Would you like me to look up the latest analyst recommendations for any of these specific stocks?</t>
   </si>
 </sst>
 </file>
@@ -560,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -628,6 +830,78 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -377,6 +377,281 @@
 Adani Enterprises Ltd (AEL) is likely to emerge as the highest bidder to acquire Jaiprakash Associates Ltd (JAL) through the insolvency process, as its offer terms are reportedly more favorable than Vedanta's.
 This potential acquisition keeps AEL in the news.
 Would you like me to look up the latest analyst recommendations for any of these specific stocks?</t>
+  </si>
+  <si>
+    <t>11-11-2025</t>
+  </si>
+  <si>
+    <t>That's a great question, but please note that today is Tuesday, November 11, 2025. Corporate news is highly dynamic, and the "top 5" can be subjective, but based on major announcements and market impact reported today and yesterday, here are five key corporate news items affecting Indian stocks:
+📰 Top 5 Corporate News for Indian Stocks Today (November 11, 2025)
+Tata Motors Demerger (CV Business Listing)
+News: Tata Motors Commercial Vehicles (TMLCV), the newly separated commercial vehicles unit of Tata Motors, is set to list on the BSE and NSE tomorrow, November 12, 2025, as the next major step in the company's demerger plan.
+Impact: This restructuring, which splits the company into separate Commercial and Passenger Vehicles units, is a significant event for investors holding Tata Motors shares, as it unlocks potential value by creating two focused entities.
+Bajaj Finance Q2 Results and Market Reaction
+News: Bajaj Finance reported strong Q2 FY26 results with a 23% YoY jump in net profit and a 22% rise in revenue.
+However, the stock saw a sharp plunge in early trade (over 5-7%) following a reported cut in their growth guidance and concerns over a rise in Net and Gross Non-Performing Assets (NPAs).
+Impact: Despite good headline numbers, the cautious guidance and asset quality concerns led to a significant negative market reaction, impacting other NBFC and financial stocks.
+Vodafone Idea Narrows Quarterly Loss
+News: Vodafone Idea (Vi) reported a net loss of ₹5,524 crore for the September 2025 quarter, marking its lowest quarterly loss in 19 quarters.
+Revenue, EBITDA, and Average Revenue Per User (ARPU) all showed modest increases.
+Impact: The narrowing loss and slight improvement in operating metrics provided some relief and positive sentiment for the stock, indicating potential stabilization.
+Britannia Industries Management Change
+News: Varun Berry resigned as the Executive Vice-Chairman, Managing Director, and CEO of Britannia Industries, effective November 10, 2025.
+The board has appointed Rakshit Hargave as the new MD and CEO, effective December 15, 2025.
+Impact: A major leadership change in a market-leading FMCG company often brings short-term volatility and investor scrutiny regarding the future strategic direction.
+Syrma SGS Technology's Defence Acquisition and Earnings
+News: Syrma SGS Technology reported a strong half-year financial performance with a near doubling of Profit After Tax (PAT).
+Crucially, the company announced the acquisition of a controlling 60% stake in Elcome Integrated Systems, a key player in the defence and maritime electronics sector.
+Impact: The robust earnings combined with a strategic move into the high-growth defence and 'Aatmanirbhar Bharat' segment is viewed positively, causing a surge in its share price.
+Key Financial Announcements Today
+Several companies are scheduled to release their Q2 FY26 earnings today, which will drive news throughout the day:
+Companies declaring results: Tata Power, Bosch, Fortis Healthcare, Torrent Power, Rail Vikas Nigam (RVNL), Bharat Forge, PI Industries, and more.
+Would you like me to check the latest stock price movements for any of these companies, or search for a specific sector's corporate news?</t>
+  </si>
+  <si>
+    <t>12-11-2025</t>
+  </si>
+  <si>
+    <t>That's a great question! Based on the latest corporate news and stock market developments for Indian stocks today, November 12, 2025, here are the top 5 key corporate news items:
+📰 Top 5 Corporate News Today for Indian Stocks
+Adani Enterprises Rights Issue Details Approved:
+The News: The company's Rights Issue Committee approved the detailed terms for its massive ₹25,000 crore rights issue.
+Key Detail: The rights issue price has been set at ₹1,800 per share.
+The record date for determining eligible shareholders is Monday, November 17, 2025.
+Stock Impact: The stock was a major gainer, surging over 6% in today's trading session.
+Groww's Strong Stock Market Debut (IPO Listing):
+The News: Billionbrains Garage Ventures, the parent company of the fintech platform Groww, made a strong debut on the stock exchanges (BSE and NSE).
+Key Detail: The stock listed at a premium of about 12% to 14% over its IPO issue price of ₹100 per share, surpassing muted Grey Market Premium (GMP) expectations.
+Stock Impact: The stock saw a sharp uptick post-listing, trading with high volumes.
+Listing of Tata Motors' Commercial Vehicle Arm:
+The News: The demerged Commercial Vehicles (CV) business of Tata Motors officially listed on the exchanges today, trading under the name Tata Motors Ltd.
+Key Detail: The stock debuted at a premium of nearly 28% from its discovered price on the NSE.
+The demerger aims to create two independent listed entities for better focus and valuation.
+Stock Impact: The newly listed CV arm's stock saw strong initial momentum.
+Major Q2 Earnings and Sector Focus:
+The News: Several key companies reported their Q2 FY26 earnings, with mixed results and forward guidance:
+Tata Power: Reported a 13.93% YoY consolidated net profit growth for the quarter.
+Hindustan Unilever (HUL): The National Company Law Tribunal (NCLT) approved the demerger of its ice cream business into a new entity, Kwality Wall's (India).
+Bajaj Finance: The stock faced selling pressure and declined over 7% due to lower AUM growth guidance and increasing asset stress concerns.
+Vodafone Idea Engages for Fundraising and AGR Resolution:
+The News: Vodafone Idea confirmed it is actively working on a resolution for its substantial ₹78,500 crore AGR (Adjusted Gross Revenue) dues and is engaged with banks and NBFCs for fundraising to support its operations and planned 5G rollout.
+Key Detail: This is a crucial step towards stabilizing the company's financial position and capital expenditure plans.
+Would you like a summary of the top stock market performers (gainers and losers) on the indices today, or perhaps a deep dive into any one of these specific corporate news items?</t>
+  </si>
+  <si>
+    <t>13-11-2025</t>
+  </si>
+  <si>
+    <t>14-11-2025</t>
+  </si>
+  <si>
+    <t>🇮🇳 Top Corporate News for Indian Stocks Today (November 14, 2025)
+The major corporate news today is dominated by Quarterly Results (Q2 FY26) and related stock movements, alongside significant corporate developments.
+Here are 5 key corporate news items impacting Indian stocks:
+1. Quarterly Results &amp; Dividend Announcements
+Several high-profile companies have announced their Q2 FY26 results, leading to significant stock movement:
+Hero MotoCorp: The company reported a 16% year-on-year (YoY) increase in standalone net profit, reaching ₹1,393 crore, which is a major positive.
+Muthoot Finance: Shares jumped by around 10% following the announcement of a strong Q2 performance, with net profit surging by 87% YoY to ₹2,345 crore.
+MRF: The tyre maker declared an interim dividend of ₹3 per share as its September quarter net profit rose 12% YoY to ₹526 crore.
+Bharat Dynamics (BDL): Shares jumped over 7% after strong Q2 earnings, with PAT surging 76% YoY, and a significant ₹2,100 crore defence order win.
+Voltas: Shares saw a dip after the company reported a sharp fall in Q2 PAT, down 76% YoY to ₹32 crore.
+2. Companies Announcing Q2 Results Today
+Investors are keenly watching the results of several major companies scheduled to be released today (November 14, 2025):
+Tata Motors Passenger Vehicles Ltd.
+Oil India Ltd.
+Marico Ltd.
+MRF (Results announced, see point 1)
+Max Healthcare Institute Ltd.
+Siemens Ltd.
+3. Order Wins and New Projects
+NBCC (India) Ltd.: Secured a contract worth ₹340 crore for Phase-I construction work for the Central ... (details pending from source).
+Adani Power: Secured a 3,200 MW Assam project.
+Adani Green: Secured a 500 MW storage order from APDCL.
+4. Capital Market Activity - IPOs/Listings
+Pine Labs: The company's shares listed at a premium (around 9.5%) over its IPO price.
+Curis Lifesciences: Listed at a 14% premium over its IPO price.
+Capillary Technologies India Ltd. IPO: The IPO opened today, with a price band of ₹549-₹577 per share.
+5. Corporate Actions (Bonus/Splits/Block Deals)
+Smallcap Stock (Ram Ratna Wires): A smallcap company with high recent returns (136% in 2 years) announced a 1:1 bonus issue.
+Ather Energy: Experienced significant block deals totaling ₹545 crore, with NIIF-II booking profits and Ghisallo/Societe Generale buying shares.
+Mafatlal Industries, JM Financial, Birlasoft, Nava, D-Link (India), KP Green Engineering, Pricol, Ganesh Consumer Products, K.P. Energy: These companies have a Dividend Ex-date today (November 14, 2025).
+Would you like to check for any more specific news regarding a particular company or sector, such as Banking or IT?</t>
+  </si>
+  <si>
+    <t>15-11-2025</t>
+  </si>
+  <si>
+    <t>Today is Saturday, November 15, 2025, so the Indian stock exchanges (BSE and NSE) are typically closed. Therefore, most corporate announcements for today were released either late yesterday (Friday) or are significant developments that were announced over the weekend.
+Based on the latest available information, here are some key corporate developments and news points relevant to Indian stocks:
+📰 Top Indian Corporate News Highlights
+1. SKF India Completes Demerger and Reports Q2 Results
+News: SKF India Limited has finalized the demerger of its Industrial Undertaking to SKF India (Industrial) Limited, effective October 1, 2025.
+Financial Impact: The company reported its Q2 2025 results. Revenue grew by 5.87%, but net profit fell by over 41% year-on-year due to a significant exceptional expense (₹257.40 crore) related to the demerger.
+2. Kotak Bank Stock Split Consideration Date
+News: Kotak Mahindra Bank's board is scheduled to consider a stock split proposal on November 21, 2025.
+Relevance: Stock splits are corporate actions that typically increase the number of outstanding shares while reducing the face value and price per share, often done to improve liquidity and make the stock more accessible to retail investors.
+3. MTNL Secures Funding for Bond Interest Payment
+News: Mahanagar Telephone Nigam Limited (MTNL) announced that it has funded the escrow account for the semi-annual interest payment (8.00% MTNL Bond Series VII A) which is due today, November 15, 2025.
+Relevance: This demonstrates the company's commitment to meeting its debt obligations on time, which is a positive sign for its bondholders and overall financial discipline.
+4. Upcoming Major Corporate Actions (Next Week)
+Several large-cap companies have important corporate actions scheduled for the week starting November 17, 2025:
+Adani Enterprises: Upcoming Rights Issue of equity shares.
+Asian Paints: Scheduled to pay an Interim Dividend of ₹4.5 per share (Record Date: November 18, 2025).
+Cochin Shipyard: Announced an Interim Dividend of ₹4 per share.
+MRF &amp; Info Edge (India): Have interim dividends scheduled later in the week (Record Date: November 21, 2025).
+5. Notable Financial Results from the Past Week (Market Influence)
+While these were announced a couple of days ago, their market impact often carries over:
+Tata Steel: Reported a massive 272% year-on-year jump in consolidated net profit for Q2 FY26, driven by higher sales volumes in India and cost controls.
+Honasa Consumer (Mamaearth parent): Swung to a profit of ₹39.23 crore in Q2 FY26, against a loss in the year-ago period, leading to a surge in its share price.
+Would you like me to search for any other specific type of corporate news, such as mergers, acquisitions, or IPO updates?</t>
+  </si>
+  <si>
+    <t>The Indian stock market is currently closed today (Saturday, November 15, 2025), so major market-moving corporate news is generally released during the market's trading hours or over the weekend for Monday's open.
+Based on the latest reports and announcements available today, here are the top corporate news items relevant to Indian stocks:
+1. NMDC Revises Iron Ore Prices
+Announcement: NMDC Limited, a major iron ore producer, announced new prices for its iron ore products, effective today, November 15, 2025.
+Baila Lump (65.5%) is priced at ₹5,600 per ton.
+Baila Fines (64%) is priced at ₹4,750 per ton.
+Impact: This price revision will directly impact NMDC's revenue and profitability, and could also influence the cost structures and pricing strategies of steel manufacturers who use iron ore as a raw material.
+2. NMDC Board Decides Against Interim Dividend
+Announcement: The Board of Directors of NMDC Limited, in a meeting held yesterday (November 14, 2025), decided not to declare an interim dividend on its equity shares.
+Impact: This may be a point of disappointment for shareholders seeking regular income but implies the company is retaining funds, potentially for strategic reinvestment.
+3. Focus on Key Corporate Actions Next Week
+Several companies have upcoming key corporate actions that investors will be watching:
+Adani Enterprises (ADANIENT): Rights Issue with an Ex-Date of November 17, 2025.
+Suryaroshi (SURYAROSNI): Interim Dividend with an Ex-Date of November 17, 2025.
+MOIL Limited: Interim Dividend with a Record Date of November 15, 2025 (meaning the ex-date was November 14, 2025).
+4. Recent Listing: Tata Motors Commercial Vehicles (CV)
+Development: The demerged Commercial Vehicles business of Tata Motors was recently listed (November 13, 2025) and closed at a premium to its listing price.
+Impact: This separate listing allows investors to value the CV business independently, and its performance will continue to be a focus area for the market.
+The market on Friday (November 14, 2025) closed with marginal gains, with key stocks like Eternal, Bharat Electronics, and Trent being the top gainers, while Infosys, Tata Steel, and ICICI Bank were among the top losers. The broader sentiment remains influenced by global cues, domestic macroeconomic factors, and expectations regarding central bank decisions.
+Would you like me to look up specific sector news, such as IT, Banking, or Metals, or track the recent stock market recommendations?</t>
+  </si>
+  <si>
+    <t>16-11-2025</t>
+  </si>
+  <si>
+    <t>As of today, Sunday, November 16, 2025, which is a non-trading day for the Indian stock exchanges (BSE and NSE), the major corporate news is primarily focused on a summary of the previous week's performance and certain corporate actions/filings that happened just before the weekend.
+Here are the top corporate and market highlights impacting Indian stocks:
+1. 💰 Market Cap Surge Led by Large-Caps
+Eight of India's ten most valuable companies collectively added over ₹2.05 lakh crore (approximately $24.7 billion USD) in market capitalization last week.
+Leading the Gains: Bharti Airtel and Reliance Industries (RIL) were the biggest contributors to this upswing.
+Other Major Gainers: Tata Consultancy Services (TCS), ICICI Bank, and State Bank of India (SBI) also saw significant increases in their market valuation.
+Laggards: Bajaj Finance and Life Insurance Corporation of India (LIC) were the two majors that saw a decline in their market value.
+2. 🗓️ Key Corporate Actions &amp; Filings (Recent)
+While the market is closed today, certain corporate actions and minor filings were processed recently on the exchanges:
+Upcoming Corporate Actions: Several companies have Ex-Dates scheduled for the start of the trading week (Monday, November 17, 2025), primarily for Interim Dividends and Rights Issues.
+Rights Issue: Adani Enterprises (Rights 3:25) and Baid Finserv (Rights 1:4).
+Interim Dividends: Companies like Balrampur Chini Mills, Arfin India, Gopal Snacks, EPL Limited, GMM Pfaudler, Pearl Global Industries, and Surya Roshni have their ex-date for interim dividends on November 17.
+Corporate Filings: Routine corporate filings such as newspaper publications and general updates were filed by smaller companies like Uniparts India Limited, Crest Ventures Limited, and AVRO INDIA LIMITED.
+3. 🏦 Financial Results &amp; Board Meetings
+Result Updates: Glottis Limited made a recent filing regarding its unaudited financial results and investor presentation.
+Upcoming Board Meetings: Several companies, including Kotak Mahindra Bank, Jaiprakash Associates Limited (JPASSOCIAT), and others, have announced upcoming board meetings (scheduled for the coming week) to consider various matters, including financial results.
+4. 📈 Sectoral and Market Trends (Previous Week)
+The broader market ended the previous week with modest gains, continuing a four-day positive streak.
+The positive sentiment was supported by buying in sectors like FMCG, Banking, and Telecom.
+Investor focus is shifting towards upcoming monetary policy meetings, including the RBI MPC and the US Federal Reserve meetings, which is keeping sentiment cautiously positive.
+Disclaimer: The Indian stock market (BSE/NSE) is closed on Sunday. The corporate news provided reflects major market-moving information from the close of the last trading session and recent corporate filings made on the exchanges.
+Would you like me to look up the latest updates on a specific Indian stock?</t>
+  </si>
+  <si>
+    <t>18-11-2025</t>
+  </si>
+  <si>
+    <t>20-11-2025</t>
+  </si>
+  <si>
+    <t>That's a great question for tracking market movements! Based on the latest corporate announcements and market reports for Indian stocks today (November 20, 2025), here are the top 5 key corporate news items:
+📰 Top 5 Corporate News for Indian Stocks Today
+Hindustan Unilever (HUL) Demerger:
+HUL has set December 5 as the record date for the demerger of its ice-cream business into a new entity named Kwality Walls (India) Limited (KWIL).
+The scheme of demerger itself is scheduled to become effective on December 1. This means HUL shareholders on the record date will be entitled to receive shares in KWIL.
+Infosys Share Buyback Opens:
+The window for India's second-largest IT services company, Infosys, to buy back shares worth ₹18,000 crore (approximately $2.16 billion) opens today, November 20, and will close on November 26.
+The buyback price is set at ₹1,800 per share for shareholders who held shares as of the record date (November 14).
+TCS Wins NHS Supply Chain Contract:
+Tata Consultancy Services (TCS) has secured a significant contract with the National Health Service (NHS) Supply Chain in the UK.
+TCS will provide application development support and maintenance for NHS Supply Chain's core business systems and cloud infrastructure platforms for a period of five years, modernizing their IT systems with cloud and AI-enabled solutions.
+Azad Engineering Signs Pratt &amp; Whitney Canada Deal:
+Azad Engineering has announced an agreement with Pratt &amp; Whitney Canada Corporation to develop and manufacture aircraft engine components.
+This is a major contract in the aerospace and defense sector, although the value of the order was not disclosed due to confidentiality.
+Mahindra Holidays &amp; Resorts India (MHRIL) Diversifies:
+MHRIL announced a diversification, entering the Leisure Hospitality sector as a new line of business.
+This suggests new expansion plans beyond their core timeshare model, likely focusing on new resort properties or hospitality offerings.
+Key Market Activity (For Context)
+FII/DII Data (Nov 19): Both Foreign Institutional Investors (FIIs) and Domestic Institutional Investors (DIIs) were net buyers yesterday.
+FIIs were net buyers of approximately ₹1,580 crore.
+DIIs were net buyers of approximately ₹1,360 crore.
+Market Outlook Today (Nov 20): Indian benchmark indices (Nifty and Sensex) are expected to open higher, following positive global cues, especially after the rally in US technology stocks post-Nvidia's earnings.
+Would you like to search for the latest recommendations (Buy/Sell/Hold) on any of these specific stocks?</t>
+  </si>
+  <si>
+    <t>21-11-2025</t>
+  </si>
+  <si>
+    <t>That's a great question, as corporate news is a key driver for stock movements. Based on the latest updates for Indian stocks today, November 21, 2025, here are five of the top corporate news items:
+📰 Top 5 Corporate News for Indian Stocks Today
+Rank Company Corporate Action Key Details &amp; Impact
+1 TCS (Tata Consultancy Services) Major AI/Data Centre Partnership TCS has partnered with global investment firm TPG to grow its data centre business, HyperVault. The plan is to invest up to ₹180 billion (approx. $2.16 billion) over the next few years, positioning TCS to become a major AI-ready technology services company. TPG will take a significant minority stake.
+2 IndiGo (InterGlobe Aviation) Large Investment for Aircraft IndiGo has announced an investment of $820 million into its subsidiary, InterGlobe Aviation, primarily for aircraft acquisition. This signals continued aggressive expansion plans in the aviation sector.
+3 Reliance Industries Ltd (RIL) Energy Sourcing &amp; FMCG Entry Energy: RIL has completed a full transition away from Russian-origin crude oil for its SEZ refinery operations, shifting to non-Russian feedstock to comply with upcoming restrictions. FMCG: Its consumer arm, RCPL, launched a new pet food brand, "Waggies," entering the rapidly growing pet care market.
+4 Adani Wilmar (AWL) Large Block Deal The Adani Group sold its remaining 7% stake in AWL via a large block deal. Such large promoter stake sales often lead to immediate pressure on the stock price due to the sudden increase in supply, though it can also increase free float.
+5 JSW Energy Insolvency Resolution Plan Approval JSW Energy received approval from the Committee of Creditors for its resolution plan for Raigarh Champa Rail Infrastructure Pvt Ltd. This move strengthens JSW Energy's infrastructure-related portfolio acquired through the insolvency process.
+Export to Sheets
+Disclaimer: This information is based on corporate announcements and financial news available as of today, November 21, 2025. Stock movements are subject to overall market conditions and other factors.
+Would you like to get a summary of the market performance today (Sensex and Nifty levels) or more details on any of these specific company announcements?</t>
+  </si>
+  <si>
+    <t>22-11-2025</t>
+  </si>
+  <si>
+    <t>The Indian stock market is closed today, Saturday, but based on recent major corporate announcements and news from Friday's closing and the last couple of days, here are 5 key corporate news items affecting Indian stocks:
+📰 Top Corporate News (Latest)
+TCS to Form Mega AI Data Centre JV with TPG:
+Tata Consultancy Services (TCS) and private equity firm TPG will form a joint venture to develop AI data centres.
+They plan to invest a total of ₹18,000 crore (approx.
+$2.03 billion) in equity in the JV, named "HyperVault AI Data Centre," over the next few years, and aim to raise an additional $4.5-$5 billion through debt.
+Significance: This is a major strategic move for TCS to capitalize on the growing Artificial Intelligence and cloud infrastructure market.
+Infosys Buyback Opens at ₹1,800/Share:
+Infosys, India's second-largest IT services company, launched its ₹18,000 crore share buyback program.
+The company will buy back shares at a maximum price of ₹1,800 per share, which represents a significant premium to the current market price.
+Significance: Buybacks typically aim to return surplus cash to shareholders and can positively impact key metrics like Earnings Per Share (EPS) and Return on Equity (ROE).
+Reliance Industries (RIL) Halts Russian Oil Imports for Export Refinery:
+Reliance Industries has stopped importing Russian oil for its export-only refinery in Jamnagar to comply with new European Union sanctions.
+Exports from this refinery will be entirely from non-Russian oil starting December 1.
+Significance: The news is related to RIL's global supply chain and compliance, which is a key operational factor for the oil-to-chemicals major.
+HUL Demerger of Ice-Cream Business:
+Hindustan Unilever (HUL) has set December 5 as the record date for the demerger of its ice-cream business into a new entity, Kwality Walls (India).
+The demerger scheme is scheduled to become effective on December 1.
+Significance: This is a corporate restructuring event that will create a separate listed entity for shareholders of HUL's ice-cream business.
+PVR Inox Expansion Plans:
+Leading multiplex operator PVR Inox announced plans to add 100 screens in the current fiscal year.
+However, it may also shut down 10-15 non-performing screens after a review. The expansion is focusing on both existing top markets and smaller markets with affordable pricing.
+Significance: This shows the company's focus on network expansion and optimizing operational efficiency in the entertainment sector.
+Would you like to know more about the stock movement of any of these companies yesterday or search for a different kind of news?</t>
+  </si>
+  <si>
+    <t>📅 Corporate News for Indian Stocks (November 22, 2025)
+As today is a Saturday, major announcements from the stock exchanges (BSE/NSE) are typically from the preceding trading day, which was Friday, November 21, 2025.
+Here are the Top 5 Corporate News and Market Highlights from Friday, which are likely to influence market sentiment:
+1. 🤝 TCS and TPG Joint Venture
+News: Tata Consultancy Services (TCS) and private equity firm TPG Terabyte Bidco will form a joint venture to develop AI data centers.
+Impact: The partners plan to invest up to ₹18,000 crore (approx.
+$2.03 billion) in equity over the next few years, targeting the rapidly growing AI and cloud infrastructure space. This is a significant strategic move for TCS.
+2. 🏦 Kotak Mahindra Bank Stock Split
+News: The Board of Directors of Kotak Mahindra Bank approved a stock split in the ratio of 1:5 (one equity share of ₹5 face value split into five equity shares of ₹1 face value).
+Impact: A stock split typically makes shares more affordable for retail investors and can increase liquidity, often leading to a short-term positive reaction in the market.
+3. ⛽ Reliance Industries (RIL) Crude Import Halt
+News: Reliance Industries announced that it has halted the import of Russian crude oil for processing at its export-oriented Jamnagar refinery to comply with European Union sanctions.
+Impact: The company stated that exports from this refinery will be entirely from non-Russian oil starting December 1. This strategic realignment of its supply chain is a significant business development due to geopolitical factors.
+4. ✈️ IndiGo (InterGlobe Aviation) Investment Plan
+News: IndiGo approved a ₹7,294 crore investment in its arm, InterGlobe Aviation Fin Services, to acquire aircraft assets.
+Impact: This large capital commitment highlights the company's aggressive fleet expansion and growth strategy in the aviation sector.
+5. 📉 Market Movement &amp; Sectoral Performance
+News: The Indian stock market benchmarks, Sensex and Nifty 50, closed lower on Friday, ending a two-day winning streak.
+Reasons: Profit-booking after hitting a 52-week high, weak global cues, growing concerns over the India-US trade deal, and a fall in heavyweight banking stocks (HDFC Bank, ICICI Bank, SBI).
+Top Losers: Metals and banking stocks, including JSW Steel, Hindalco, Tata Steel.
+Would you like me to search for any specific company's latest corporate announcements or news?</t>
   </si>
 </sst>
 </file>
@@ -762,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -902,6 +1177,98 @@
         <v>26</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -652,6 +652,60 @@
 Reasons: Profit-booking after hitting a 52-week high, weak global cues, growing concerns over the India-US trade deal, and a fall in heavyweight banking stocks (HDFC Bank, ICICI Bank, SBI).
 Top Losers: Metals and banking stocks, including JSW Steel, Hindalco, Tata Steel.
 Would you like me to search for any specific company's latest corporate announcements or news?</t>
+  </si>
+  <si>
+    <t>23-11-2025</t>
+  </si>
+  <si>
+    <t>The Indian stock market is generally closed on Sundays, so there aren't fresh corporate announcements for today, November 23, 2025.
+However, based on the most recent news and market momentum from the end of the last trading week (Friday, November 21, 2025), here are 5 key corporate-related news points and market themes that are currently in focus:
+📰 Top 5 Corporate News &amp; Themes (From recent close)
+Market Capitalisation Jump for Top Companies:
+Reliance Industries (RIL), Bharti Airtel, HDFC Bank, TCS, and Infosys saw significant jumps in their market capitalization near the close of the week, with RIL regaining its position as the country's most valuable company.
+This reflects a surge in investor confidence in major large-cap stocks.
+US Court Upholds Damages Against TCS:
+A significant negative event involved a US court upholding $194 million in damages against Tata Consultancy Services (TCS) in a trade secrets case with DXC Technology.
+This could be a point of concern for investors when the market reopens.
+Adani Group's Resolution Plan for Jaypee Assets:
+Adani Enterprises (AEL) received committee of creditors (CoC) approval for its ₹14,500 crore resolution plan for Jaypee Infratech (JAL). This plan, which includes carving out JAL's assets across Adani group entities (like Ambuja for cement, Adani Realty for land), signals an aggressive expansion strategy for AEL.
+Brokerage Focus on Financials &amp; Autos:
+Brokerages have been issuing positive notes on key stocks:
+HDFC Bank: Morgan Stanley had an 'Overweight' rating, expecting loan growth in line with the system and stabilizing Net Interest Margins (NIM).
+Hero Motocorp: Macquarie upgraded the stock to 'Outperform', citing stabilized domestic market share and potential upside from new launches and a GST reduction.
+Expansion Plans &amp; Investment Announcements:
+Several companies announced major growth plans, which often drive stock interest:
+IndiGo (InterGlobe Aviation) approved a capital investment of over
+₹7,000 crore for aircraft ownership, shifting away from a complete leasing model.
+UFlex announced a major expansion in Karnataka with an investment of over
+₹700 crore.
+The official stock markets (BSE and NSE) will resume trading on Monday, November 24, 2025.
+Would you like me to set a reminder to get you the latest corporate news that comes out on Monday morning?</t>
+  </si>
+  <si>
+    <t>It appears you are asking for the top 5 corporate news items impacting Indian stocks today.
+Since today is Sunday, November 23, 2025, the Indian stock exchanges (BSE and NSE) are closed for regular trading. As such, there is no major market-moving corporate news or financial results announced today in the same way there is on a weekday.
+However, I can provide a summary of the most significant corporate news and actions from the most recent trading day (Friday, November 21, 2025) and announcements for the upcoming week (starting Monday, November 24, 2025):
+📰 Corporate Highlights from the Weekend &amp; Upcoming Week
+VLS Finance Buyback and Management Change:
+The Board of VLS Finance Ltd approved a share buyback of up to ₹100 crore.
+They also announced the appointment of a new Non-Executive Independent Director, Mr.
+Gaurav Goel.
+(Announced late Friday/Saturday)
+Corporate Actions: Dividends &amp; Bonus Issue
+HDFC AMC will trade Ex-Bonus next week for its 1:1 bonus issue.
+Several companies are scheduled to trade Ex-Dividend next week, including:
+Ingersoll-Rand (India) Ltd (Interim Dividend of ₹55.00/share - Ex-Date: Nov 25)
+Power Finance Corporation (PFC) Ltd (Interim Dividend of ₹3.65/share - Ex-Date: Nov 26)
+Tata Consultancy Services (TCS) &amp; US Court Case:
+A US court upheld $194 million in damages against TCS in a trade secrets case involving DXC Technology.
+This is a significant legal development for one of India's largest IT companies.
+Adani Enterprises Stake Sale:
+Adani Enterprises' subsidiary, Adani Commodities, sold a stake worth approximately $279 million in Adani Wilmar (AWL Agri Business).
+Bank Sentiment and Analyst Views:
+IIFL Securities maintains a positive view on the banking sector, anticipating an earnings rebound and favoring stocks like Axis Bank and HDFC Bank.
+This general sector sentiment can influence the performance of major financial stocks.
+The actual price impact of these will be seen when the market re-opens on Monday.
+Would you like to know the top gainers or losers from the last trading day (Friday, November 21, 2025)?</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1269,6 +1323,28 @@
         <v>46</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -706,6 +706,275 @@
 This general sector sentiment can influence the performance of major financial stocks.
 The actual price impact of these will be seen when the market re-opens on Monday.
 Would you like to know the top gainers or losers from the last trading day (Friday, November 21, 2025)?</t>
+  </si>
+  <si>
+    <t>Since today is Sunday, November 23, 2025, the Indian stock markets (NSE and BSE) are closed. Most of the corporate news available right now relates to announcements made after Friday's close, or is a summary of the past week's market movements and upcoming corporate actions for the next trading week.
+Here are the top 5 relevant corporate/market-related news points, largely covering the recent market activity and upcoming events:
+📰 Top 5 Corporate News &amp; Market Highlights
+1. Market Cap Summary: RIL and Bharti Airtel Lead Weekly Gains
+A weekly review showed that Reliance Industries (RIL) and Bharti Airtel were the biggest gainers among the top 10 most valued firms.
+RIL's market capitalization (m-cap) increased by ₹36,673 crore, solidifying its position as the most valued company. Bharti Airtel's m-cap also jumped by ₹36,579 crore.
+Gainers: RIL, Bharti Airtel, Infosys, TCS, HDFC Bank, SBI, and HUL.
+Laggards: Bajaj Finance, LIC, and ICICI Bank.
+2. Corporate Action: HUL's Ice-Cream Demerger
+Hindustan Unilever (HUL) has set the record date for the demerger of its ice-cream business into a new entity, Kwality Walls (India) Limited (KWIL).
+Action: Demerger of Ice-Cream business.
+Effective Date: Scheduled to be effective on December 1.
+Record Date: December 5, 2025, to determine eligible HUL shareholders for KWIL equity shares.
+3. Share Buyback Update: Infosys
+Infosys, India's second-largest IT services company, is closing its substantial share buyback window next week.
+Action: ₹18,000 crore share buyback.
+Closing Date: Wednesday, November 26, 2025.
+Buyback Price: ₹1,800 per share.
+4. Next Week's Corporate Actions: Ex-Dividend Stocks
+Several stocks are scheduled to trade ex-dividend early in the coming week, which is a major event for their shareholders.
+Ingersoll-Rand (India): Trades ex-dividend for an interim dividend of ₹55.00 per share on November 25.
+Power Finance Corporation (PFC): Trades ex-dividend for an interim dividend of ₹3.65 per share on November 26.
+5. ESOS Allotment: City Union Bank
+City Union Bank announced an allotment of over 10 lakh equity shares to eligible employees under its Employee Stock Option Scheme (ESOS).
+This increases the bank's paid-up capital and is a move to enhance employee ownership.
+Disclaimer: Stock markets are closed on Sunday. The corporate news reflects significant developments from the past week or confirmed events for the upcoming week.
+Would you like me to look up any specific Indian stock's recent news or corporate filings?</t>
+  </si>
+  <si>
+    <t>The Indian stock market is closed today (Sunday, November 23, 2025), so there are no fresh corporate filings from the exchanges. However, here are some of the most recent and significant corporate news items and market movements from the past few days that are impacting Indian stocks:
+📰 Top Corporate &amp; Market News (Recent Highlights)
+Here are five key corporate and market developments from the end of the trading week (November 21st, 2025) and over the weekend:
+1. Major Weekly Gainers in Market Valuation
+Reliance Industries (RIL) and Bharti Airtel led the gains, adding significant market capitalization last week.
+TCS, Infosys, HDFC Bank, and State Bank of India (SBI) also saw notable increases in their market valuations.
+2. Noteworthy Corporate Actions &amp; Ex-Dividend Dates
+Several companies are in focus due to corporate actions scheduled for the upcoming week:
+PFC (Power Finance Corporation):
+Will trade ex-dividend on Wednesday, November 26, for an interim dividend of ₹3.65 per share.
+Ingersoll-Rand (India): Will trade ex-dividend on Tuesday, November 25, for an interim dividend of ₹55 per share.
+HDFC AMC: Has a record date for a Bonus Issue (1:1) on Wednesday, November 26.
+3. Market Correction/Profit-Taking on Friday
+The Sensex and Nifty 50 closed lower on Friday (November 21), halting a recent rally due to profit-taking near record highs.
+The decline was led by banking heavyweights like ICICI Bank and HDFC Bank, alongside a broader global sell-off following inconclusive U.S. jobs data.
+4. Adani Enterprises Sells Stake in AWL Agri Business
+Adani Enterprises, through a subsidiary, sold a stake in Adani Wilmar (AWL) Agri Business.
+This kind of movement often draws investor attention regarding group strategy and liquidity.
+5. TCS in Focus Over US Court Ruling
+A US court upheld a $194 million damages ruling against Tata Consultancy Services (TCS) in a trade secrets case.
+Such legal rulings can be a point of concern for investors, though the impact on a large firm like TCS needs further assessment.
+Disclaimer: The Indian stock market (BSE and NSE) is closed on Sunday. The above news reflects the most recent significant corporate and market activity.
+Would you like me to search for any specific company's latest corporate announcements or a particular sector's news?</t>
+  </si>
+  <si>
+    <t>As of today, Sunday, November 23, 2025, the Indian stock markets (BSE and NSE) are closed, so there are no official "today's" market-moving corporate announcements.
+However, based on the most recent corporate and market activities from the past few days, here are 5 key news/developments that would be highly relevant to Indian stocks:
+🇮🇳 Top Corporate &amp; Stock Market News (Recent Highlights)
+Strong FII/DII Activity and Bullish Sentiment:
+The Big Picture: Foreign Institutional Investors (FIIs) and Domestic Institutional Investors (DIIs) have shown a mix of buying and selling, but the overall sentiment remains positive, especially for large-cap stocks.
+Market Impact: The indices (Sensex and Nifty) have been trading near all-time highs, supported by this continuous institutional support. A shift in FII/DII flow is a major daily factor for the markets.
+Sectoral Performance: IT and Banking in Focus:
+IT Stocks: Saw significant gains recently, with companies like HCL Tech, Infosys, and Tata Consultancy Services (TCS) emerging as top performers on those days, suggesting renewed interest or positive outlook for the sector.
+Banking Stocks (HDFC Bank, ICICI Bank): Faced profit-taking and were among the top drags in the most recent trading session, indicating market volatility and sector rotation despite strong long-term fundamentals.
+Upcoming Corporate Actions and Events:
+Dividends/Other Actions: Companies like INGERRAND (Interim Dividend), HDFCAMC (Bonus issue 1:1), and PFC (Interim Dividend) have important Ex-Dates scheduled for the coming week (November 24th onwards), which often drives trading interest.
+Buyback/New Appointments: VLS Finance Ltd recently announced a buyback of its equity shares and a change in management, which can impact its stock price in the near term.
+Brokerage Upgrades and Stock Recommendations:
+Specific Stock Picks: Brokerages have maintained or upgraded their outlook for several large-cap and mid-cap stocks based on strong Q2 earnings. Notable stocks receiving "Buy" recommendations or positive outlooks include Fortis Healthcare, Jio Financial Services, SBI, Bharti Airtel, and UltraTech Cement.
+Global Macro &amp; Trade Deal Influence:
+India-US Trade Deal: Statements by the Commerce and Industry Minister regarding "good news" on a proposed India-US trade agreement continue to act as a potential positive trigger for the market, particularly for sectors involved in international trade.
+Global Cues: The Indian market is reacting to international developments like US jobs data and global rate cut expectations, which influences FII sentiment and sector performance.
+Since the market is closed today, would you like me to look up specific news for a particular Indian stock or sector?</t>
+  </si>
+  <si>
+    <t>Since today is Sunday, November 23, 2025, the Indian stock markets (BSE and NSE) are closed. Most of the corporate news available is either a summary of the previous trading week, or announcements for the coming week.
+Here are the top corporate news and developments influencing Indian stocks from the weekend and upcoming week:
+1. Market Valuation Highlights (Weekly Summary)
+The past week saw significant gains in the market capitalization of several large-cap companies:
+Top Gainers (by MCap): Reliance Industries, Bharti Airtel, HDFC Bank, Infosys, and TCS were among the top companies that saw the biggest increase in their market valuation.
+Top Losers (by MCap): Bajaj Finance, LIC, and ICICI Bank saw their market valuations decline.
+2. Upcoming Corporate Actions (Ex-Dividend &amp; Ex-Bonus)
+A number of major corporate actions are scheduled for the coming week, which will be in focus:
+Ex-Dividend Stocks: Companies like Power Finance Corporation (PFC) (interim dividend of ₹3.65 per share) and Ingersoll-Rand (India) (interim dividend of ₹55 per share) are set to trade ex-dividend.
+Ex-Bonus Stocks: HDFC Asset Management Company (HDFC AMC) and Thyrocare Technologies will trade ex-bonus, meaning they will adjust their share prices to reflect the issue of bonus shares.
+3. Infosys Share Buyback
+The ₹18,000 crore share buyback offer by Infosys is scheduled to close on Wednesday, November 26, 2025. This major corporate event has been influencing the stock's liquidity and price.
+4. Retail Holding in Defence Stocks
+A recent analysis showed that while retail investors are generally increasing their stake in the defence sector, five key stocks saw a quarter-on-quarter drop in retail shareholding in the September quarter:
+Bharat Electronics Ltd (BEL)
+Hindustan Aeronautics Ltd (HAL)
+Data Patterns (India)
+Cyient DLM
+Bharat Forge
+5. Other Key Announcements/Developments
+VLS Finance Ltd: Approved a Buyback of its equity shares and appointed a new Independent Director (announced late on Friday/Saturday).
+The Federal Bank Limited: Announced the allotment of equity shares upon the exercise of Stock Options (ESOP/ESPS) (announced late on Friday).
+Would you like me to search for any specific company's latest corporate announcement or a particular sector's news?</t>
+  </si>
+  <si>
+    <t>As today is Sunday, November 23, 2025, the Indian stock market (BSE and NSE) is closed, so there are no official "today's" corporate news announcements that would impact trading immediately.
+However, based on the corporate announcements and market movements from the past few days, here are 5 key corporate-related news points that have been influencing the market:
+📰 Top 5 Corporate News &amp; Market Drivers (Recent)
+Reliance Industries (RIL) &amp; Bharti Airtel Lead Market Cap Gains:
+News: Both companies were significant drivers of market performance, with their market capitalization (mcap) seeing the sharpest increases over the past week.
+RIL is regaining its position as the country's most valued company.
+Impact: This highlights a focus on large-cap, heavyweight stocks in the Energy/Telecom sectors.
+IT Sector Activity and Generative AI Focus (TCS, Infosys):
+News: The IT sector, while seeing some recent consolidation, has been active.
+TCS secured a major 5-year application development and maintenance deal with the UK's National Health Service (NHS) Supply Chain.
+Infosys has an ongoing ₹18,000 crore share buyback offer.
+Impact: Large deal wins and share buybacks are positive for investor sentiment.
+However, the broader IT sector's struggle to effectively deploy cash towards emerging tech like AI has led to some recent underperformance compared to the benchmark indices.
+HUL's Ice-Cream Business Demerger:
+News: Hindustan Unilever (HUL) has set the record date (December 5) for the demerger of its ice-cream business into a new entity, Kwality Walls (India) Limited (KWIL).
+Impact: Demergers often create value for existing shareholders as the standalone entities can command a better valuation.
+This puts HUL in focus.
+Major Corporate Actions in Financials (HDFCAMC, Kotak Bank, PFC):
+News: Several financial institutions have announced corporate actions:
+HDFC Asset Management Company (HDFCAMC) is set to go ex-bonus for a 1:1 Bonus Issue on November 26.
+Kotak Mahindra Bank's board is meeting (was scheduled for November 21) to consider a stock split.
+Power Finance Corporation (PFC) is going ex-dividend for an Interim Dividend on November 26.
+Impact: Stock splits and dividends typically generate positive short-term investor interest, while bonus issues are also seen as a positive sign of a company's financial health.
+New Contracts/Projects in Infrastructure &amp; Engineering (TCS, Azad Engineering, KPI Green Energy):
+News: Several companies secured notable contracts and business deals:
+Azad Engineering signed a significant agreement with Pratt &amp; Whitney Canada to develop and manufacture aircraft engine components.
+KPI Green Energy secured a large ₹696 crore contract from SJVN for a 200 MW solar project.
+Impact: Strong order book additions and contracts are crucial indicators of future revenue and growth, particularly in the infrastructure, defence, and manufacturing sectors.
+The market will resume trading on Monday, November 24, 2025, and these recent developments will likely influence investor activity.
+Would you like me to look up the latest brokerages' buy/sell recommendations on any of these stocks for Monday's trading?</t>
+  </si>
+  <si>
+    <t>Since today is Sunday, November 23, 2025, the Indian stock markets (BSE and NSE) are closed. Corporate news and market summaries typically focus on the last trading day, which was Friday, November 21, 2025, and any significant weekend developments that might influence the opening on Monday.
+Here are the top corporate and market highlights from the previous trading day and weekend announcements that could be relevant to Indian stocks:
+📰 Top Corporate &amp; Market Highlights (November 21-23, 2025)
+1. Market Volatility and Profit Booking (Friday's Action)
+Indices Decline: The Indian equity benchmarks, Sensex and Nifty 50, closed lower on Friday due to profit-booking as indices hovered near their record highs.
+The Nifty 50 declined by about 0.47% to settle near 26,068.
+The Sensex dropped by about 0.47% to close near 85,231.
+Key Drags: Banking heavyweights like HDFC Bank and ICICI Bank, along with IT (e.g., HCL Tech) and Metal stocks (Tata Steel, Hindalco), were among the top losers.
+Market Sentiment: The profit-taking was partly influenced by weak global cues, including inconclusive US jobs data that clouded the near-term outlook for US Federal Reserve interest rates.
+2. Significant Corporate Actions (VLS Finance)
+VLS Finance announced a share buyback of ₹100 crore and the appointment of a new Independent Director.
+This is a significant corporate action often seen as a way to return capital to shareholders.
+3. FII/DII Activity Trend
+FIIs (Foreign Institutional Investors): Were net sellers on Friday, selling equities worth a significant amount (approx. ₹1,766 crore), though FII selling has moderated slightly in November overall.
+DIIs (Domestic Institutional Investors): Were strong net buyers, purchasing equities worth over ₹3,161 crore on Friday, continuing to provide a crucial support base for the domestic market.
+4. Marico's Digital Brands Milestone
+Marico (Consumer Goods) announced that its digital-first brands have crossed the ₹1,000 crore annual recurring revenue (ARR) mark, indicating strong growth in its digital and direct-to-consumer (D2C) portfolio.
+5. Other Key Announcements/Events
+Infosys Buyback: The buyback window for India's second-largest IT services company, Infosys, is set to close on Wednesday, November 26, 2025.
+Merger Update: Sequent Scientific announced the record date and share exchange ratio for its merger with Viyash-Geninn.
+Ex-Dividend/Ex-Bonus: Several stocks, including Ingersoll-Rand (India), Power Finance Corporation (PFC), HDFC Asset Management Company, and Thyrocare Technologies, will trade ex-dividend or ex-bonus next week.
+Would you like a more detailed breakdown of the Friday (November 21st) market performance for the main indices and sectors?</t>
+  </si>
+  <si>
+    <t>The Indian stock markets (BSE and NSE) are closed today, Sunday, November 23, 2025. The corporate news available reflects developments from the past week and expectations for the upcoming week.
+Based on the latest corporate and market developments reported up to the market close on Friday, here are 5 key pieces of news for Indian stocks:
+1. 🏦 Kotak Mahindra Bank Stock Split Approved
+Kotak Mahindra Bank's board has approved the subdivision of shares in a 1:5 ratio.
+This means one existing share will be split into five new shares.
+Stock splits are typically done to increase liquidity and make shares more accessible to a wider pool of retail investors.
+2. ✈️ IndiGo to Replace Tata Motors PV in Sensex
+IndiGo (InterGlobe Aviation) is set to replace Tata Motors Passenger Vehicles (TMPV) in the 30-share SENSEX index starting from December 22, 2025.
+This change in the benchmark index can influence fund flows into the respective stocks.
+3. 💼 IDBI Bank Privatization &amp; Kotak Interest
+Kotak Mahindra Bank is reportedly seen as a frontrunner in the planned privatization of IDBI Bank, with the government aiming to complete the sale of its 61% stake by FY26.
+This development could be significant for the Indian banking sector and the future of both entities.
+4. 💰 Carlyle Launching India Side Fund
+Global private equity major Carlyle is reportedly launching a $300 million dedicated India side fund.
+This indicates continued strong interest from global institutional investors in Indian growth sectors, which is a positive sentiment for the broader market.
+5. 🏗️ AAI's ₹17,000 Crore Aviation Ecosystem Investment
+The Airports Authority of India (AAI) plans to invest between ₹15,000–₹17,000 crore by 2029 for airspace capacity expansion, including revamping Air Traffic Control (ATC) towers at 65 airports.
+This development is expected to benefit:
+Airport Operators (e.g., GMR Airports, Adani Airports).
+Aviation Technology/Automation Providers (e.g., BEL, Data Patterns, Cyient).
+Would you like me to look up any specific company's recent news or search for details on the upcoming IPOs?</t>
+  </si>
+  <si>
+    <t>It's a Sunday, so the Indian stock market is closed. The news headlines available are generally about the previous week's performance, corporate developments, and projections for the coming days.
+Based on the latest available reports, here are 5 key corporate/stock-related news points for Indian stocks, largely reflecting developments from the past week:
+📰 Top Corporate News &amp; Stock Market Highlights
+Market Valuation Gains for Top Firms:
+Seven of the top 10 most valued firms added approximately ₹1.28 lakh crore in market capitalization over the past week.
+Reliance Industries (RIL) and Bharti Airtel were the biggest gainers, leading the surge in market valuation.
+Defence Stocks and Retail Holding:
+Retail investors' holding dropped in five defence stocks during the September quarter, including Public Sector Undertakings (PSUs) like Bharat Electronics Ltd (BEL) and Hindustan Aeronautics Ltd (HAL), as well as Data Patterns (India).
+Hindustan Unilever (HUL) Demerger:
+HUL has set December 5 as the record date for the demerger of its ice-cream business into a new entity, Kwality Walls (India).
+TCS Wins Major International Contract:
+Tata Consultancy Services (TCS) secured a five-year contract with the UK's National Health Service (NHS) Supply Chain for application development support, maintenance, and cloud infrastructure.
+This is a significant IT services win.
+KEC International Barred from PGCIL Tenders:
+KEC International announced it has been barred by Power Grid Corporation of India Limited (PGCIL) from participating in new tenders or receiving contract awards for a period of nine months due to alleged contractual issues.
+Would you like me to look up any specific Indian stock or sector news?</t>
+  </si>
+  <si>
+    <t>The stock market (BSE/NSE) is closed today, Sunday, November 23, 2025.
+Based on corporate announcements and key market-moving news from the end of the previous trading week (up to Friday, November 21, 2025) and news over the weekend, here are 5 significant corporate news items or developments impacting Indian stocks:
+📰 Top 5 Corporate News Affecting Indian Stocks
+HUL's Ice-Cream Business Demerger:
+News: Hindustan Unilever (HUL) has set December 5 as the record date for the demerger of its ice-cream business into a new entity, Kwality Walls (India) Ltd (KWIL).
+Impact: This sets the stage for eligible HUL shareholders to receive shares in the new demerged entity, potentially unlocking value.
+Infosys Share Buyback Closure Date:
+News: India's second-largest IT company, Infosys, has its massive ₹18,000 crore share buyback window set to close on Wednesday, November 26, 2025.
+Impact: Share price movement will be influenced by the final days of the buyback offer, which was set at a maximum price of ₹1,800 per share.
+HDFC AMC &amp; Thyrocare Technologies Ex-Bonus Dates:
+News: HDFC Asset Management Company (HDFC AMC) and Thyrocare Technologies shares are scheduled to trade ex-bonus next week (record dates November 26 and November 28, respectively).
+Impact: These corporate actions often lead to increased trading activity and stock price adjustments leading up to the ex-date.
+Major Interim Dividend Announcements:
+News: Several companies will trade ex-dividend next week.
+Key names include:
+Power Finance Corporation (PFC): Interim Dividend of ₹3.65 per share (Ex-Date Nov 26).
+Ingersoll-Rand (India): Interim Dividend of ₹55.00 per share (Ex-Date Nov 25).
+Impact: Dividend announcements and ex-dates attract income-focused investors and cause a price drop equivalent to the dividend amount on the ex-date.
+Retail Holding Changes in Defence Stocks:
+News: A report highlighted a drop in retail shareholding in five key defence stocks during the September quarter, notably in PSU majors Bharat Electronics Ltd (BEL) and Hindustan Aeronautics Ltd (HAL), as well as Data Patterns.
+Impact: This points to a slight profit-taking or reallocation by small investors in the high-performing defence sector, despite overall strong retail appetite for the sector.
+Would you like me to look for any specific company news, or perhaps the upcoming week's corporate actions like board meetings or IPOs?</t>
+  </si>
+  <si>
+    <t>As the market is closed today (Sunday, November 23, 2025), the news reflects recent corporate announcements and market-moving events from the past few days that are likely to influence the stocks when trading resumes.
+Here are 5 significant pieces of corporate and market news affecting Indian stocks:
+1. 🤝 TCS &amp; TPG Form AI Data Centre Joint Venture
+Company: Tata Consultancy Services (TCS)
+News: TCS and private equity firm TPG are forming a joint venture, HyperVault AI Data Centre, to develop AI data centers.
+Impact: They plan to invest a total of ₹18,000 crore (approx. $2.03 billion) in equity over the next few years, signaling a major push by TCS into high-growth AI infrastructure.
+2. 🧊 HUL's Ice-Cream Business Demerger
+Company: Hindustan Unilever (HUL)
+News: HUL has set December 5 as the record date for the demerger of its ice-cream business into a new entity, Kwality Walls (India) Limited (KWIL).
+Impact: HUL shareholders as of the record date will be eligible to receive shares of the newly listed KWIL, which could unlock value for the shareholders of the FMCG major.
+3. ⛽️ Reliance Halts Russian Oil Imports for Export Refinery
+Company: Reliance Industries (RIL)
+News: Reliance Industries has stopped importing Russian oil for processing at its export-only refinery in Jamnagar, Gujarat, to comply with European Union sanctions.
+Impact: RIL's exports from this refinery will now be entirely from non-Russian oil starting December 1. This change in sourcing could impact the margins and operations of its Oil-to-Chemicals (O2C) segment, though analysts expect RIL's strength in refining to drive overall O2C earnings.
+4. 💰 Infosys Share Buyback Nears Close
+Company: Infosys
+News: India's second-largest IT services company's ₹18,000 crore share buyback offer, which opened on November 20, will close on Wednesday, November 26.
+Impact: The closure of the large buyback program can lead to short-term price fluctuations and is a key corporate action for shareholders who participated at the price of ₹1,800 per share.
+5. 📉 Retail Holding Drops in Key Defence Stocks
+Companies: Bharat Electronics (BEL), Hindustan Aeronautics (HAL), Data Patterns, Cyient DLM, and Bharat Forge.
+News: Retail investors trimmed their stake in these five defence stocks during the September quarter, despite strong overall retail appetite for the sector.
+Data Patterns and PSU majors BEL and HAL saw the sharpest drops.
+Impact: While these stocks have delivered stellar returns (BEL at 50% in the last year), the data suggests profit-booking or shifting preferences among the retail investor segment in the high-flying defence space.
+Would you like me to look up the top gainers and losers from the last trading session, or check for upcoming ex-dividend dates?</t>
+  </si>
+  <si>
+    <t>The Indian stock market is closed today, Sunday, November 23, 2025. Therefore, there are no new corporate news announcements from today that would impact stock trading.
+However, based on the most recent market activity and corporate announcements from the past few days, here are 5 of the top corporate and market-moving news items relevant to Indian stocks:
+🚀 Top 5 Corporate News &amp; Stock Highlights (Recent)
+Market Cap Gains Led by Heavyweights:
+Seven of the top 10 most valued firms added a collective
+1.28 lakh crore to their market capitalization over the past week.
+Reliance Industries and Bharti Airtel were the biggest gainers, leading the surge in valuation. HDFC Bank, TCS, and Infosys also saw strong gains.
+BSE Bankex Rejig:
+Four banks—Canara Bank, AU Small Finance Bank, Punjab National Bank, and Union Bank of India—are set to be added to the BSE Bankex, effective December 26, 2025.
+This is a significant index re-weighting news.
+Infosys Share Buyback &amp; TCS Deal:
+Infosys's
+Rs 18,000 crore share buyback offer window is ongoing and will close on Wednesday, November 26, 2025.
+Tata Consultancy Services (TCS) won a 5-year contract from the National Health Service (NHS) Supply Chain in the UK for application development and maintenance.
+HUL Demerger Update:
+Hindustan Unilever (HUL) has set December 5, 2025, as the record date for the demerger of its ice-cream business into a new entity, Kwality Walls (India).
+Adani Enterprises' Jaypee Acquisition:
+Adani Enterprises received the Committee of Creditors (CoC) approval for its
+Rs 14,500 crore resolution plan for Jaypee Infratech (JAL).
+This deal, if approved by NCLT, could involve carving out Jaypee's assets (like cement, real estate, power) across various Adani Group companies.
+Next Step: Would you like me to search for any specific company's latest news, or perhaps a sector-specific news summary from the past week?</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1345,6 +1614,94 @@
         <v>49</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s" s="3">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Data/StockNews.xlsx
+++ b/src/test/resources/Data/StockNews.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>23-10-2025</t>
   </si>
@@ -975,6 +975,70 @@
 Rs 14,500 crore resolution plan for Jaypee Infratech (JAL).
 This deal, if approved by NCLT, could involve carving out Jaypee's assets (like cement, real estate, power) across various Adani Group companies.
 Next Step: Would you like me to search for any specific company's latest news, or perhaps a sector-specific news summary from the past week?</t>
+  </si>
+  <si>
+    <t>16-02-2026</t>
+  </si>
+  <si>
+    <t>Aye Finance: The fintech lender had a more stable start, listing at par with its issue price of ₹129./n</t>
+  </si>
+  <si>
+    <t>nullTorrent Pharma: Reported a strong quarter with net profit jumping 26.3% to ₹635 crore, supported by 17% revenue growth./nIRB Infrastructure: Faced selling pressure after reporting a sharp drop in net profit to ₹210.7 crore, down from ₹603 crore in the previous year's quarter./nHindustan Copper: In focus after being slapped with a ₹929 crore demand notice from the Jharkhand government regarding statutory clearances./n</t>
+  </si>
+  <si>
+    <t>Indian equity markets are showing a bit of a tug-of-war today, February 16, 2026.
+ After a rocky start tracking global weakness, the Sensex and Nifty 50 managed to claw back into the green by midday, largely fueled by selective buying in defensive sectors like Pharma and FMCG.
+Here are the top 5 corporate and market-moving stories you should know:
+1. RBI Tightens the Noose on Broker Lending
+Shares of major capital market players like BSE, Angel One, and Groww saw a sharp sell-off (dropping between 2% and 10%) today.
+ This follows a fresh RBI circular that restricts banks from financing "proprietary trading"—essentially stopping brokers from using bank funds to trade for their own accounts.
+ Analysts suggest this could hit BSE’s earnings by as much as 10%.
+2. Ola Electric: Losses Narrow, but Revenue Skids
+Ola Electric is under the microscope after reporting its Q3 FY26 results.
+ While the company managed to narrow its net loss to ₹487 crore (from ₹564 crore last year) through cost-cutting, its revenue plummeted by 55% to ₹470 crore.
+ The stock is facing pressure as investors weigh improved margins against a significant drop in top-line growth.
+3. Kwality Wall's (India) Muted Market Debut
+Following its demerger from Hindustan Unilever (HUL), Kwality Wall's (India) made its debut on the stock exchanges today.
+ The listing was lukewarm, with shares settling at a significant discount in early trade compared to pre-open expectations, reflecting a cautious investor appetite for the newly independent ice cream giant.
+4. Pharma and Defensive Stocks Lead Recovery
+While IT stocks like TCS and Infosys continue to face heat from AI disruption fears, the broader market is being supported by "defensive" plays.
+ Torrent Pharma is a standout gainer today after posting a 26% jump in net profit, while Apollo Hospitals gained as it successfully diversified its patient inflow away from crisis-hit regions.
+5. AI Impact Summit 2026 Boosts Sentiment
+The commencement of the "India AI Impact Summit 2026" in New Delhi is providing a thematic tailwind. Prime Minister Modi's focus on AI as a core pillar of the "Seva Teerth" governance model has shifted investor attention toward companies positioned for AI adoption, helping offset some of the broader global negativity.
+Top Sectoral Movers (Midday Update):
+| Sector | Trend | Key Stocks |
+| :--- | :--- | :--- |
+| Pharma | ▲ Gaining | Torrent Pharma, Sun Pharma |
+| Finance | ▼ Losing | Angel One, BSE, Groww |
+| Power/Infra | ▲ Gaining | Power Grid, NBCC |
+| IT | ▼ Losing | Infosys, TCS |
+Would you like me to pull up the specific technical levels for any of these stocks or give you a deeper dive into the new RBI lending rules?</t>
+  </si>
+  <si>
+    <t>It is Monday, February 16, 2026, and the Indian stock market is seeing a flurry of activity, primarily driven by the listing of a new major entity and significant AI-focused collaborations.
+Here are the top 5 corporate news stories moving the needle today:
+1. Kwality Wall's (India) Lists at a Discount
+Following its high-profile demerger from Hindustan Unilever (HUL), shares of Kwality Wall’s (India) officially listed on the NSE and BSE today.
+ The stock debuted at a 26% discount compared to pre-listing expectations, marking a rocky start for the ice cream giant as an independent entity.
+ Investors are closely watching its ability to leverage its 10% market share now that it’s decoupled from HUL.
+2. TCS and AMD Partner for "Helios" AI
+Tata Consultancy Services (TCS) and AMD have announced a strategic expansion to build India's first rack-scale AI architecture, dubbed "Helios." The project aims to establish sovereign AI factories in India with a blueprint for data centers supporting up to 200 MW of capacity.
+ This move positions TCS at the forefront of the national AI infrastructure push.
+3. Ola Electric: Narrowing Losses, Slumping Revenue
+Ola Electric is in the spotlight after reporting its Q3 FY26 results.
+ While the company managed to narrow its net loss to ₹487 crore (down from ₹564 crore last year), its revenue from operations plummeted 55% year-on-year to ₹470 crore.
+ The sharp decline in revenue is being attributed to cooling EV demand and lower volumes, causing the stock to slide roughly 5% in early trade.
+4. Blackstone's $1.2 Billion Bet on India AI
+Global private equity giant Blackstone has led a massive $1.2 billion capital raise for Neysa, a fast-growing Indian AI acceleration cloud platform.
+ This is one of the largest private investments in the Indian AI space, signaling strong institutional confidence in India's technology growth despite recent volatility in the broader IT sector.
+5. Eternal Ltd Joins the Nifty 50
+E-retail major Eternal Ltd has officially been included in the benchmark Nifty 50 index.
+ The inclusion has triggered significant institutional buying and portfolio rebalancing. Market analysts view this as a milestone for the company, though the broader IT and tech sector continues to face pressure due to AI-led disruption concerns.
+Market Snapshot:
+The BSE Sensex and NSE Nifty 50 opened in the red today following a rough previous session, but have shown signs of recovery in mid-day trade.
+Top Gainers: Power Grid, HDFC Bank, and NTPC.
+Top Laggards: Infosys, Adani Ports, and SBI.
+Would you like me to look into the specific analyst targets or "Buy/Sell" ratings for any of these companies?</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935507C-A8BE-42EF-B05F-18FB1BC648D7}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1702,6 +1766,38 @@
         <v>60</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s" s="3">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
